--- a/medicine/Psychotrope/Lavazza/Lavazza.xlsx
+++ b/medicine/Psychotrope/Lavazza/Lavazza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Luigi Lavazza S.p.A. est une entreprise italienne fondée en 1895 par Luigi Lavazza.
@@ -514,13 +526,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été fondée à Turin en 1895 par Luigi Lavazza (it)[3].
-En 2015, l'entreprise fête ses 120 ans d'existence et sort à cette occasion un court spot réalisé par Jean-Pierre Jeunet. La vidéo relate l'histoire de son fondateur et des débuts de la marque[4], elle s'intitule La vie offre toujours plus à savourer[5].
-La même année, l'entreprise négocie pour racheter la marque Carte Noire. La transaction envisagée comprendrait « les actifs liés à la marque Carte Noire dans l’espace économique européen, à l’exception du café instantané, des T-Discs (dosettes), et des activités de la gamme professionnelle », a précisé Lavazza dans un communiqué, sans révéler le montant de son offre[6].
-En 2016, l'entreprise acquiert pour un montant de 750 millions d'euros la marque Carte Noire avec le soutien financier de la BNL[7].
-En mai 2017, Lavazza acquiert une participation de 80 % dans Kicking Horse Coffee, entreprise canadienne de torréfaction spécialisée dans le bio et le commerce équitable[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été fondée à Turin en 1895 par Luigi Lavazza (it).
+En 2015, l'entreprise fête ses 120 ans d'existence et sort à cette occasion un court spot réalisé par Jean-Pierre Jeunet. La vidéo relate l'histoire de son fondateur et des débuts de la marque, elle s'intitule La vie offre toujours plus à savourer.
+La même année, l'entreprise négocie pour racheter la marque Carte Noire. La transaction envisagée comprendrait « les actifs liés à la marque Carte Noire dans l’espace économique européen, à l’exception du café instantané, des T-Discs (dosettes), et des activités de la gamme professionnelle », a précisé Lavazza dans un communiqué, sans révéler le montant de son offre.
+En 2016, l'entreprise acquiert pour un montant de 750 millions d'euros la marque Carte Noire avec le soutien financier de la BNL.
+En mai 2017, Lavazza acquiert une participation de 80 % dans Kicking Horse Coffee, entreprise canadienne de torréfaction spécialisée dans le bio et le commerce équitable.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créateur dès 1989[9] de capsules individuelles et des machines correspondantes en collaboration avec Saeco – fabricant italien et premier constructeur mondial de machines à café expresso pour collectivités –, Lavazza en est le premier fabricant mondial avec plus de 2 milliards de dosettes[réf. nécessaire].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créateur dès 1989 de capsules individuelles et des machines correspondantes en collaboration avec Saeco – fabricant italien et premier constructeur mondial de machines à café expresso pour collectivités –, Lavazza en est le premier fabricant mondial avec plus de 2 milliards de dosettes[réf. nécessaire].
 Avec son slogan qui indique que c'est « le café préféré des italiens », Lavazza revendique 16 des 20 milliards de cafés que prennent les italiens.
 Ses différentes gammes sont Top Class, Super Crema, Crema e Gusto, Gran Espresso, Dek (décafféiné), et A Modo Mio.
 Lavazza dispose également de boutiques où est servi du café (les chaînes "Il Caffè di Roma" et "Espression").
